--- a/app/Licenciatura_em_Informacao_Turistica.xlsx
+++ b/app/Licenciatura_em_Informacao_Turistica.xlsx
@@ -22,27 +22,25 @@
     <sheet name="20153145" sheetId="12" r:id="rId15"/>
     <sheet name="20153134" sheetId="13" r:id="rId16"/>
     <sheet name="20153151" sheetId="14" r:id="rId17"/>
-    <sheet name="20154467" sheetId="15" r:id="rId18"/>
-    <sheet name="20153149" sheetId="16" r:id="rId19"/>
-    <sheet name="20153130" sheetId="17" r:id="rId20"/>
-    <sheet name="20153132" sheetId="18" r:id="rId21"/>
-    <sheet name="20153153" sheetId="19" r:id="rId22"/>
-    <sheet name="20153133" sheetId="20" r:id="rId23"/>
-    <sheet name="20153152" sheetId="21" r:id="rId24"/>
-    <sheet name="20153146" sheetId="22" r:id="rId25"/>
-    <sheet name="20154466" sheetId="23" r:id="rId26"/>
-    <sheet name="20153131" sheetId="24" r:id="rId27"/>
-    <sheet name="20153137" sheetId="25" r:id="rId28"/>
-    <sheet name="20153150" sheetId="26" r:id="rId29"/>
-    <sheet name="20153148" sheetId="27" r:id="rId30"/>
-    <sheet name="20153139" sheetId="28" r:id="rId31"/>
-    <sheet name="20153142" sheetId="29" r:id="rId32"/>
-    <sheet name="20153140" sheetId="30" r:id="rId33"/>
-    <sheet name="20153154" sheetId="31" r:id="rId34"/>
-    <sheet name="20153141" sheetId="32" r:id="rId35"/>
-    <sheet name="20153135" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet2" sheetId="34" r:id="rId37"/>
-    <sheet name="Sheet3" sheetId="35" r:id="rId38"/>
+    <sheet name="20153149" sheetId="15" r:id="rId18"/>
+    <sheet name="20153130" sheetId="16" r:id="rId19"/>
+    <sheet name="20153132" sheetId="17" r:id="rId20"/>
+    <sheet name="20153153" sheetId="18" r:id="rId21"/>
+    <sheet name="20153133" sheetId="19" r:id="rId22"/>
+    <sheet name="20153152" sheetId="20" r:id="rId23"/>
+    <sheet name="20153146" sheetId="21" r:id="rId24"/>
+    <sheet name="20153131" sheetId="22" r:id="rId25"/>
+    <sheet name="20153137" sheetId="23" r:id="rId26"/>
+    <sheet name="20153150" sheetId="24" r:id="rId27"/>
+    <sheet name="20153148" sheetId="25" r:id="rId28"/>
+    <sheet name="20153139" sheetId="26" r:id="rId29"/>
+    <sheet name="20153142" sheetId="27" r:id="rId30"/>
+    <sheet name="20153140" sheetId="28" r:id="rId31"/>
+    <sheet name="20153154" sheetId="29" r:id="rId32"/>
+    <sheet name="20153141" sheetId="30" r:id="rId33"/>
+    <sheet name="20153135" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -199,9 +197,6 @@
     <t>Amelia Micaela</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -238,9 +233,6 @@
     <t>Leta Jossefa</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -268,9 +260,6 @@
     <t>Alda Luis Tsinela</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>081301793969C</t>
   </si>
   <si>
@@ -295,9 +284,6 @@
     <t>Rossina Menete Boane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110102333399Q</t>
   </si>
   <si>
@@ -322,9 +308,6 @@
     <t>Encarnacao Fernando Ufave</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080102194876M</t>
   </si>
   <si>
@@ -349,9 +332,6 @@
     <t>Elvira Rosa S. Matsinhe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110200244474B</t>
   </si>
   <si>
@@ -400,9 +380,6 @@
     <t>Julia Diogo</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>030100415130B</t>
   </si>
   <si>
@@ -427,9 +404,6 @@
     <t>Manuela Augosto Tomas</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040100497092I</t>
   </si>
   <si>
@@ -529,15 +503,6 @@
     <t>Escola Josina Machel</t>
   </si>
   <si>
-    <t>Marrima</t>
-  </si>
-  <si>
-    <t>Augusto Samuel</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Marino</t>
   </si>
   <si>
@@ -553,9 +518,6 @@
     <t>Angelina Focas Mangualale</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>020100446404M</t>
   </si>
   <si>
@@ -670,9 +632,6 @@
     <t>Marta JosÉ Mondlane</t>
   </si>
   <si>
-    <t>Distrito de Manjacaze</t>
-  </si>
-  <si>
     <t>090101524366S</t>
   </si>
   <si>
@@ -700,12 +659,6 @@
     <t>+258826450179</t>
   </si>
   <si>
-    <t>Chapila</t>
-  </si>
-  <si>
-    <t>Amelia Gilberto</t>
-  </si>
-  <si>
     <t>Chalera</t>
   </si>
   <si>
@@ -784,9 +737,6 @@
     <t>Fahara Ali Mahomede Valy</t>
   </si>
   <si>
-    <t>Distrito de Magude</t>
-  </si>
-  <si>
     <t>100300592026A</t>
   </si>
   <si>
@@ -808,9 +758,6 @@
     <t>Muassumo Abdul Aly</t>
   </si>
   <si>
-    <t>Distrito de Homoine</t>
-  </si>
-  <si>
     <t>080404100699J</t>
   </si>
   <si>
@@ -887,9 +834,6 @@
   </si>
   <si>
     <t>Telma Nataniel</t>
-  </si>
-  <si>
-    <t>Distrito de Marracuene</t>
   </si>
   <si>
     <t>110100532652N</t>
@@ -2176,7 +2120,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2192,7 +2136,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2208,7 +2152,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2224,7 +2168,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2240,7 +2184,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2255,9 +2199,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2265,7 +2207,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2276,7 +2218,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2285,7 +2227,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2297,7 +2239,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2305,7 +2247,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2401,7 +2343,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2444,7 +2386,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2771,7 +2713,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2787,7 +2729,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2803,7 +2745,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2819,7 +2761,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2835,7 +2777,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2850,9 +2792,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2860,7 +2800,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2871,7 +2811,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2880,7 +2820,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2892,7 +2832,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2900,7 +2840,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2996,7 +2936,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3039,7 +2979,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3366,7 +3306,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3382,7 +3322,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3398,7 +3338,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3414,7 +3354,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3430,7 +3370,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3445,9 +3385,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3455,7 +3393,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3466,7 +3404,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3475,7 +3413,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3487,7 +3425,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3495,7 +3433,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3591,7 +3529,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3634,7 +3572,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3961,7 +3899,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3977,7 +3915,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3993,7 +3931,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4009,7 +3947,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4025,7 +3963,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4040,9 +3978,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4050,7 +3986,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4061,7 +3997,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4070,7 +4006,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4082,7 +4018,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4090,7 +4026,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4186,7 +4122,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4229,7 +4165,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4556,7 +4492,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4572,7 +4508,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4588,7 +4524,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4604,7 +4540,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4620,7 +4556,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4635,9 +4571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4645,7 +4579,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4656,7 +4590,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4665,7 +4599,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4677,7 +4611,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4685,7 +4619,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4781,7 +4715,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4824,7 +4758,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5075,7 +5009,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -5125,7 +5061,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154467</v>
+        <v>20153149</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5149,7 +5085,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5165,7 +5101,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5180,7 +5116,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -5194,7 +5132,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -5208,7 +5148,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5229,7 +5171,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -5238,14 +5182,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -5255,13 +5203,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -5356,7 +5308,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5382,7 +5334,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -5396,7 +5350,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -5698,7 +5654,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153149</v>
+        <v>20153130</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5722,7 +5678,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5738,7 +5694,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5754,7 +5710,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5770,7 +5726,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5786,7 +5742,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5801,9 +5757,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>167</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5811,7 +5765,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5822,7 +5776,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5831,7 +5785,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5843,15 +5797,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>168</v>
+      <c r="H17" s="20">
+        <v>3564704</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5947,7 +5901,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5974,7 +5928,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5990,7 +5944,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6293,7 +6247,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153130</v>
+        <v>20153132</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6317,7 +6271,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6333,7 +6287,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6349,7 +6303,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6365,7 +6319,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6381,7 +6335,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6396,9 +6350,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6406,7 +6358,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6417,7 +6369,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6426,7 +6378,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6438,15 +6390,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3564704</v>
+      <c r="H17" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6542,7 +6494,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6585,7 +6537,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6888,7 +6840,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153132</v>
+        <v>20153153</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6912,7 +6864,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6928,7 +6880,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6944,7 +6896,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6960,7 +6912,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6976,7 +6928,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6991,9 +6943,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7001,7 +6951,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7012,7 +6962,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7021,7 +6971,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7033,15 +6983,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>184</v>
+      <c r="H17" s="20">
+        <v>80076803</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7137,7 +7087,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7164,7 +7114,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7180,7 +7130,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7483,7 +7433,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153153</v>
+        <v>20153133</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7507,7 +7457,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7523,7 +7473,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7539,7 +7489,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7555,7 +7505,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7571,7 +7521,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7586,9 +7536,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7596,7 +7544,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7607,7 +7555,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7616,7 +7564,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7628,15 +7576,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>80076803</v>
+      <c r="H17" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7732,7 +7680,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7759,7 +7707,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7775,7 +7723,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8181,9 +8129,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8191,7 +8137,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8202,7 +8148,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8211,7 +8157,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8223,7 +8169,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8231,7 +8177,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8327,7 +8273,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8370,7 +8316,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8673,7 +8619,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153133</v>
+        <v>20153152</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8697,7 +8643,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8713,7 +8659,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8729,7 +8675,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8745,7 +8691,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8761,7 +8707,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8776,9 +8722,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8786,7 +8730,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8797,7 +8741,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8806,7 +8750,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8818,7 +8762,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8826,7 +8770,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8922,7 +8866,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8965,7 +8909,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9268,7 +9212,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153152</v>
+        <v>20153146</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9292,7 +9236,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9308,7 +9252,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9324,7 +9268,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9340,7 +9284,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9356,7 +9300,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9371,9 +9315,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9381,7 +9323,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9392,7 +9334,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9401,7 +9343,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9413,15 +9355,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>207</v>
+      <c r="H17" s="20">
+        <v>395013</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9517,7 +9459,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9544,7 +9486,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9560,7 +9502,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9863,7 +9805,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153146</v>
+        <v>20153131</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9887,7 +9829,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9903,7 +9845,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9919,7 +9861,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9935,7 +9877,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9950,9 +9892,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>214</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9966,9 +9906,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9976,7 +9914,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9987,7 +9925,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9996,7 +9934,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10008,15 +9946,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>395013</v>
+      <c r="H17" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10112,7 +10050,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10139,7 +10077,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10155,7 +10093,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10406,7 +10344,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -10456,7 +10396,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154466</v>
+        <v>20153137</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10480,7 +10420,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10496,7 +10436,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10511,7 +10451,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -10525,7 +10467,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>212</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -10539,7 +10483,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10560,7 +10506,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -10569,14 +10517,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10586,13 +10538,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>110201585391</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10687,7 +10643,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10713,7 +10669,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10727,7 +10685,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -11029,7 +10989,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153131</v>
+        <v>20153150</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11053,7 +11013,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11069,7 +11029,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11085,7 +11045,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11101,7 +11061,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11116,7 +11076,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>220</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -11130,9 +11092,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11140,7 +11100,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11151,7 +11111,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11160,7 +11120,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11172,7 +11132,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11180,7 +11140,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11276,7 +11236,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11303,7 +11263,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11319,7 +11279,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11622,7 +11582,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153137</v>
+        <v>20153148</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11725,9 +11685,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11735,7 +11693,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11746,7 +11704,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11755,7 +11713,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11767,15 +11725,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>110201585391</v>
+      <c r="H17" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11871,7 +11829,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11898,7 +11856,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11914,7 +11872,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12217,7 +12175,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153150</v>
+        <v>20153139</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12320,9 +12278,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12330,7 +12286,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12341,7 +12297,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12350,7 +12306,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12362,7 +12318,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12509,7 +12465,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12812,7 +12768,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153148</v>
+        <v>20153142</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12836,7 +12792,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12852,7 +12808,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12868,7 +12824,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12884,7 +12840,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12900,7 +12856,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12915,9 +12871,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>244</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12925,7 +12879,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12936,7 +12890,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12945,7 +12899,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12957,7 +12911,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12965,7 +12919,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13061,7 +13015,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13088,7 +13042,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13104,7 +13058,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13407,7 +13361,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153139</v>
+        <v>20153140</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13431,7 +13385,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13447,7 +13401,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13463,7 +13417,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13479,7 +13433,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13495,7 +13449,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13510,9 +13464,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13520,7 +13472,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13531,7 +13483,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13540,7 +13492,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13552,15 +13504,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>253</v>
+      <c r="H17" s="20">
+        <v>80073994</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13656,7 +13608,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13699,7 +13651,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14002,7 +13954,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153142</v>
+        <v>20153154</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14026,7 +13978,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14042,7 +13994,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14058,7 +14010,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14074,7 +14026,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14090,7 +14042,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14105,9 +14057,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14115,7 +14065,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14126,7 +14076,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14135,7 +14085,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14147,7 +14097,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14155,7 +14105,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14251,7 +14201,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14278,7 +14228,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14294,7 +14244,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14621,7 +14571,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14637,7 +14587,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14653,7 +14603,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14669,7 +14619,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14685,7 +14635,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14700,9 +14650,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14710,7 +14658,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14721,7 +14669,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14730,7 +14678,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14742,7 +14690,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14750,7 +14698,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14846,7 +14794,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14889,7 +14837,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15192,7 +15140,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153140</v>
+        <v>20153141</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15216,7 +15164,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15232,7 +15180,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15248,7 +15196,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15264,7 +15212,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15280,7 +15228,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15295,9 +15243,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15305,7 +15251,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15316,7 +15262,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15325,7 +15271,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15337,15 +15283,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>80073994</v>
+      <c r="H17" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15441,7 +15387,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15468,7 +15414,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15484,7 +15430,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15787,7 +15733,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153154</v>
+        <v>20153135</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15811,7 +15757,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15827,7 +15773,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15843,7 +15789,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15859,7 +15805,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15875,7 +15821,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15890,9 +15836,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15900,7 +15844,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15911,7 +15855,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15920,7 +15864,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15932,7 +15876,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15940,7 +15884,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16036,7 +15980,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16063,7 +16007,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16079,7 +16023,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16282,1196 +16226,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153141</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2009</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153135</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2010</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -17495,7 +16249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17652,7 +16406,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17668,7 +16422,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17684,7 +16438,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17700,7 +16454,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17716,7 +16470,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17731,9 +16485,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17741,7 +16493,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17752,7 +16504,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17761,7 +16513,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17773,7 +16525,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17781,7 +16533,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17877,7 +16629,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17920,7 +16672,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18247,7 +16999,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18263,7 +17015,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18279,7 +17031,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18295,7 +17047,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18311,7 +17063,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18326,9 +17078,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18336,7 +17086,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18347,7 +17097,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18356,7 +17106,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18368,7 +17118,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18376,7 +17126,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18472,7 +17222,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18515,7 +17265,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18842,7 +17592,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18858,7 +17608,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18874,7 +17624,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18890,7 +17640,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18906,7 +17656,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18921,9 +17671,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18931,7 +17679,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18942,7 +17690,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18951,7 +17699,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18963,7 +17711,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18971,7 +17719,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19067,7 +17815,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19110,7 +17858,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19437,7 +18185,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19453,7 +18201,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19469,7 +18217,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19485,7 +18233,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19501,7 +18249,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19516,9 +18264,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19526,7 +18272,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19537,7 +18283,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19546,7 +18292,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19558,7 +18304,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19566,7 +18312,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19662,7 +18408,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19705,7 +18451,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20032,7 +18778,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20048,7 +18794,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20064,7 +18810,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20080,7 +18826,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20096,7 +18842,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20111,9 +18857,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20121,7 +18865,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20132,7 +18876,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20141,7 +18885,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20153,7 +18897,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20161,7 +18905,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20257,7 +19001,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20300,7 +19044,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20627,7 +19371,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20643,7 +19387,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20659,7 +19403,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20675,7 +19419,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20691,7 +19435,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20706,9 +19450,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20716,7 +19458,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20727,7 +19469,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20736,7 +19478,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20748,7 +19490,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20756,7 +19498,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20852,7 +19594,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20895,7 +19637,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
